--- a/Copy of 08-18-24 to 08-24-24 Milwaukee Schedule.xlsx
+++ b/Copy of 08-18-24 to 08-24-24 Milwaukee Schedule.xlsx
@@ -529,11 +529,7 @@
       <c r="O3" t="inlineStr"/>
       <c r="P3" t="inlineStr"/>
       <c r="Q3" t="inlineStr"/>
-      <c r="R3" t="inlineStr">
-        <is>
-          <t>possibly adding on a Mariano's to this day now!  11 person crew</t>
-        </is>
-      </c>
+      <c r="R3" t="inlineStr"/>
       <c r="S3" t="inlineStr"/>
       <c r="T3" t="inlineStr"/>
       <c r="U3" t="inlineStr"/>
@@ -563,11 +559,7 @@
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr"/>
       <c r="N4" t="inlineStr"/>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>per Palmer - 8-7-24 possible new account in Watertown to possibly go this day!</t>
-        </is>
-      </c>
+      <c r="O4" t="inlineStr"/>
       <c r="P4" t="inlineStr"/>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr"/>
@@ -584,31 +576,15 @@
     <row r="5">
       <c r="A5" t="inlineStr"/>
       <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>No Sue, Cynthia</t>
-        </is>
-      </c>
+      <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
+      <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>No Robyn</t>
-        </is>
-      </c>
+      <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>Lashaun Dr appt @ 2:45 pm</t>
-        </is>
-      </c>
+      <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr"/>
       <c r="N5" t="inlineStr"/>
@@ -616,27 +592,15 @@
       <c r="P5" t="inlineStr"/>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr"/>
-      <c r="S5" t="inlineStr">
-        <is>
-          <t>No Sue</t>
-        </is>
-      </c>
+      <c r="S5" t="inlineStr"/>
       <c r="T5" t="inlineStr"/>
       <c r="U5" t="inlineStr"/>
       <c r="V5" t="inlineStr"/>
-      <c r="W5" t="inlineStr">
-        <is>
-          <t>No Sue</t>
-        </is>
-      </c>
+      <c r="W5" t="inlineStr"/>
       <c r="X5" t="inlineStr"/>
       <c r="Y5" t="inlineStr"/>
       <c r="Z5" t="inlineStr"/>
-      <c r="AA5" t="inlineStr">
-        <is>
-          <t>No Sue, Cynthia, Jerry D</t>
-        </is>
-      </c>
+      <c r="AA5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr"/>
